--- a/124 × 战扩4 - Equip Battle Skills - 装备战斗技能.xlsx
+++ b/124 × 战扩4 - Equip Battle Skills - 装备战斗技能.xlsx
@@ -75,7 +75,7 @@
     <t>然而，任何 'SType: x' 或 'SType: name' 的使用仍然会使这些特定技能类型完全可用。这也是如何模仿Yanfly引擎插件版本的“Allowed Types”装备战斗技能。</t>
   </si>
   <si>
-    <t>这并不意味着如果你使用'SType: x'，只有装备技能会出现在那里，而费装备技能将不可用。</t>
+    <t>这并不意味着如果你使用'SType: x'，只有装备技能会出现在那里，而非装备技能将不可用。</t>
   </si>
   <si>
     <t>这意味着，对于'SType: x'技能访问，无论是否匹配战斗技能，与角色相关的该技能类型的所有技能都将可用。</t>
@@ -2089,7 +2089,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2128,9 +2128,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2570,8 +2567,8 @@
   <sheetPr/>
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2586,12 +2583,12 @@
       </c>
     </row>
     <row r="2" ht="54" spans="2:2">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="13"/>
+      <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
@@ -2634,10 +2631,10 @@
       </c>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="14"/>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
@@ -2660,7 +2657,7 @@
       </c>
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:2">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="12"/>
@@ -2676,7 +2673,7 @@
       </c>
     </row>
     <row r="23" ht="30" customHeight="1" spans="1:2">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="12"/>
@@ -2687,7 +2684,7 @@
       </c>
     </row>
     <row r="26" ht="30" customHeight="1" spans="1:2">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="12"/>
@@ -2698,7 +2695,7 @@
       </c>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:2">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="12"/>
